--- a/examples/to8/boot/new-engine/memory/doc/image/tlsf.xlsx
+++ b/examples/to8/boot/new-engine/memory/doc/image/tlsf.xlsx
@@ -5,20 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhrou\git\6809-game-builder\examples\to8\boot\new-engine\memory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhrou\git\6809-game-builder\examples\to8\boot\new-engine\memory\doc\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F12C62-DB6E-4397-BBDC-83820219F579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2545F5-732D-46FF-9BCE-572FC39A78D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{CC6E1519-7F17-491B-85EE-8F6981DE1189}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{CC6E1519-7F17-491B-85EE-8F6981DE1189}"/>
   </bookViews>
   <sheets>
-    <sheet name="INDEX" sheetId="2" r:id="rId1"/>
-    <sheet name="INDEX (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="INDEX fl" sheetId="2" r:id="rId1"/>
+    <sheet name="INDEX flsl" sheetId="3" r:id="rId2"/>
     <sheet name="Perf" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>fls</t>
   </si>
@@ -207,43 +206,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -398,11 +360,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -413,60 +414,54 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1911,42 +1906,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C3E98D-8FD7-4E90-93C5-05DE6A2ECA88}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="27">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="str">
+        <f>"[4,15]"</f>
+        <v>[4,15]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="str">
+        <f>"["&amp;TEXT(2^$B5,"0")&amp;","&amp;TEXT(2^$B5-1+16*(2^$B5)/16,"0")&amp;"]"</f>
+        <v>[16,31]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>"["&amp;TEXT(2^$B6,"0")&amp;","&amp;TEXT(2^$B6-1+16*(2^$B6)/16,"0")&amp;"]"</f>
+        <v>[32,63]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f t="shared" ref="C7:C15" si="0">"["&amp;TEXT(2^$B7,"0")&amp;","&amp;TEXT(2^$B7-1+16*(2^$B7)/16,"0")&amp;"]"</f>
+        <v>[64,127]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>[128,255]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>[256,511]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>[512,1023]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>[1024,2047]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>[2048,4095]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>[4096,8191]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>[8192,16383]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>[16384,32767]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="17">
+        <v>15</v>
+      </c>
+      <c r="C16" s="29" t="str">
+        <f>TEXT(2^$B16,"0")</f>
+        <v>32768</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954E48F6-36DA-4013-8EBF-E2B52D32D8FB}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2">
         <v>0</v>
       </c>
@@ -1992,12 +2164,12 @@
       <c r="Q2" s="2">
         <v>14</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2">
@@ -2018,10 +2190,10 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -2040,10 +2212,10 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2062,10 +2234,10 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2073,45 +2245,45 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
         <v>4</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="8">
         <v>5</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="8">
         <v>6</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="8">
         <v>7</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="8">
         <v>8</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="8">
         <v>9</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="8">
         <v>10</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="8">
         <v>11</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="8">
         <v>12</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="8">
         <v>13</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="8">
         <v>14</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2175,1020 +2347,13 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="R7" s="4" t="str">
+      <c r="R7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f>TEXT(2^$B8+C$2*(2^$B8)/16,"0")&amp;"-"&amp;TEXT(2^$B8-1+(C$2+1)*(2^$B8)/16,"0")</f>
-        <v>32-33</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f t="shared" ref="D8:R17" si="1">TEXT(2^$B8+D$2*(2^$B8)/16,"0")&amp;"-"&amp;TEXT(2^$B8-1+(D$2+1)*(2^$B8)/16,"0")</f>
-        <v>34-35</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>36-37</v>
-      </c>
-      <c r="F8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>38-39</v>
-      </c>
-      <c r="G8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>40-41</v>
-      </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>42-43</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>44-45</v>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>46-47</v>
-      </c>
-      <c r="K8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>48-49</v>
-      </c>
-      <c r="L8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>50-51</v>
-      </c>
-      <c r="M8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>52-53</v>
-      </c>
-      <c r="N8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>54-55</v>
-      </c>
-      <c r="O8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>56-57</v>
-      </c>
-      <c r="P8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>58-59</v>
-      </c>
-      <c r="Q8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>60-61</v>
-      </c>
-      <c r="R8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>62-63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f t="shared" ref="C9:C17" si="2">TEXT(2^$B9+C$2*(2^$B9)/16,"0")&amp;"-"&amp;TEXT(2^$B9-1+(C$2+1)*(2^$B9)/16,"0")</f>
-        <v>64-67</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>68-71</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>72-75</v>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>76-79</v>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>80-83</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>84-87</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>88-91</v>
-      </c>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>92-95</v>
-      </c>
-      <c r="K9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>96-99</v>
-      </c>
-      <c r="L9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>100-103</v>
-      </c>
-      <c r="M9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>104-107</v>
-      </c>
-      <c r="N9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>108-111</v>
-      </c>
-      <c r="O9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>112-115</v>
-      </c>
-      <c r="P9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>116-119</v>
-      </c>
-      <c r="Q9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>120-123</v>
-      </c>
-      <c r="R9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>124-127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>128-135</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>136-143</v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>144-151</v>
-      </c>
-      <c r="F10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>152-159</v>
-      </c>
-      <c r="G10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>160-167</v>
-      </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>168-175</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>176-183</v>
-      </c>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>184-191</v>
-      </c>
-      <c r="K10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>192-199</v>
-      </c>
-      <c r="L10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>200-207</v>
-      </c>
-      <c r="M10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>208-215</v>
-      </c>
-      <c r="N10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>216-223</v>
-      </c>
-      <c r="O10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>224-231</v>
-      </c>
-      <c r="P10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>232-239</v>
-      </c>
-      <c r="Q10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>240-247</v>
-      </c>
-      <c r="R10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>248-255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>256-271</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>272-287</v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>288-303</v>
-      </c>
-      <c r="F11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>304-319</v>
-      </c>
-      <c r="G11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>320-335</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>336-351</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>352-367</v>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>368-383</v>
-      </c>
-      <c r="K11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>384-399</v>
-      </c>
-      <c r="L11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>400-415</v>
-      </c>
-      <c r="M11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>416-431</v>
-      </c>
-      <c r="N11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>432-447</v>
-      </c>
-      <c r="O11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>448-463</v>
-      </c>
-      <c r="P11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>464-479</v>
-      </c>
-      <c r="Q11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>480-495</v>
-      </c>
-      <c r="R11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>496-511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>512-543</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>544-575</v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>576-607</v>
-      </c>
-      <c r="F12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>608-639</v>
-      </c>
-      <c r="G12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>640-671</v>
-      </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>672-703</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>704-735</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>736-767</v>
-      </c>
-      <c r="K12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>768-799</v>
-      </c>
-      <c r="L12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>800-831</v>
-      </c>
-      <c r="M12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>832-863</v>
-      </c>
-      <c r="N12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>864-895</v>
-      </c>
-      <c r="O12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>896-927</v>
-      </c>
-      <c r="P12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>928-959</v>
-      </c>
-      <c r="Q12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>960-991</v>
-      </c>
-      <c r="R12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>992-1023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1024-1087</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1088-1151</v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1152-1215</v>
-      </c>
-      <c r="F13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1216-1279</v>
-      </c>
-      <c r="G13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1280-1343</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1344-1407</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1408-1471</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1472-1535</v>
-      </c>
-      <c r="K13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1536-1599</v>
-      </c>
-      <c r="L13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1600-1663</v>
-      </c>
-      <c r="M13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1664-1727</v>
-      </c>
-      <c r="N13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1728-1791</v>
-      </c>
-      <c r="O13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1792-1855</v>
-      </c>
-      <c r="P13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1856-1919</v>
-      </c>
-      <c r="Q13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1920-1983</v>
-      </c>
-      <c r="R13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>1984-2047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>2048-2175</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2176-2303</v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2304-2431</v>
-      </c>
-      <c r="F14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2432-2559</v>
-      </c>
-      <c r="G14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2560-2687</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2688-2815</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2816-2943</v>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>2944-3071</v>
-      </c>
-      <c r="K14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>3072-3199</v>
-      </c>
-      <c r="L14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>3200-3327</v>
-      </c>
-      <c r="M14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>3328-3455</v>
-      </c>
-      <c r="N14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>3456-3583</v>
-      </c>
-      <c r="O14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>3584-3711</v>
-      </c>
-      <c r="P14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>3712-3839</v>
-      </c>
-      <c r="Q14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>3840-3967</v>
-      </c>
-      <c r="R14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>3968-4095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>4096-4351</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>4352-4607</v>
-      </c>
-      <c r="E15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>4608-4863</v>
-      </c>
-      <c r="F15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>4864-5119</v>
-      </c>
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>5120-5375</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>5376-5631</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>5632-5887</v>
-      </c>
-      <c r="J15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>5888-6143</v>
-      </c>
-      <c r="K15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>6144-6399</v>
-      </c>
-      <c r="L15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>6400-6655</v>
-      </c>
-      <c r="M15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>6656-6911</v>
-      </c>
-      <c r="N15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>6912-7167</v>
-      </c>
-      <c r="O15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>7168-7423</v>
-      </c>
-      <c r="P15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>7424-7679</v>
-      </c>
-      <c r="Q15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>7680-7935</v>
-      </c>
-      <c r="R15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>7936-8191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>8192-8703</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>8704-9215</v>
-      </c>
-      <c r="E16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>9216-9727</v>
-      </c>
-      <c r="F16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>9728-10239</v>
-      </c>
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>10240-10751</v>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>10752-11263</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>11264-11775</v>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>11776-12287</v>
-      </c>
-      <c r="K16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>12288-12799</v>
-      </c>
-      <c r="L16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>12800-13311</v>
-      </c>
-      <c r="M16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>13312-13823</v>
-      </c>
-      <c r="N16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>13824-14335</v>
-      </c>
-      <c r="O16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>14336-14847</v>
-      </c>
-      <c r="P16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>14848-15359</v>
-      </c>
-      <c r="Q16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>15360-15871</v>
-      </c>
-      <c r="R16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>15872-16383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>16384-17407</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>17408-18431</v>
-      </c>
-      <c r="E17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>18432-19455</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>19456-20479</v>
-      </c>
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>20480-21503</v>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>21504-22527</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>22528-23551</v>
-      </c>
-      <c r="J17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>23552-24575</v>
-      </c>
-      <c r="K17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>24576-25599</v>
-      </c>
-      <c r="L17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>25600-26623</v>
-      </c>
-      <c r="M17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>26624-27647</v>
-      </c>
-      <c r="N17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>27648-28671</v>
-      </c>
-      <c r="O17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>28672-29695</v>
-      </c>
-      <c r="P17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>29696-30719</v>
-      </c>
-      <c r="Q17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>30720-31743</v>
-      </c>
-      <c r="R17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>31744-32767</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="str">
-        <f>TEXT(2^$B18+C$2,"0")</f>
-        <v>32768</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="A3:A18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954E48F6-36DA-4013-8EBF-E2B52D32D8FB}">
-  <dimension ref="A1:R20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="17"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2">
-        <v>11</v>
-      </c>
-      <c r="O2" s="2">
-        <v>12</v>
-      </c>
-      <c r="P2" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>14</v>
-      </c>
-      <c r="R2" s="19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="22"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="22"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="13">
-        <v>4</v>
-      </c>
-      <c r="H6" s="13">
-        <v>5</v>
-      </c>
-      <c r="I6" s="13">
-        <v>6</v>
-      </c>
-      <c r="J6" s="13">
-        <v>7</v>
-      </c>
-      <c r="K6" s="13">
-        <v>8</v>
-      </c>
-      <c r="L6" s="13">
-        <v>9</v>
-      </c>
-      <c r="M6" s="13">
-        <v>10</v>
-      </c>
-      <c r="N6" s="13">
-        <v>11</v>
-      </c>
-      <c r="O6" s="13">
-        <v>12</v>
-      </c>
-      <c r="P6" s="13">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>14</v>
-      </c>
-      <c r="R6" s="24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f>TEXT(2^$B7+C$2,"0")</f>
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" ref="D7:R7" si="0">TEXT(2^$B7+D$2,"0")</f>
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="M7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="N7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="O7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="P7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="Q7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="R7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -3252,13 +2417,13 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="R8" s="26" t="str">
+      <c r="R8" s="16" t="str">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -3322,13 +2487,13 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="R9" s="26" t="str">
+      <c r="R9" s="16" t="str">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -3392,13 +2557,13 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="R10" s="26" t="str">
+      <c r="R10" s="16" t="str">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -3462,13 +2627,13 @@
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="R11" s="26" t="str">
+      <c r="R11" s="16" t="str">
         <f t="shared" si="1"/>
         <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -3532,13 +2697,13 @@
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="R12" s="26" t="str">
+      <c r="R12" s="16" t="str">
         <f t="shared" si="1"/>
         <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -3602,13 +2767,13 @@
         <f t="shared" si="1"/>
         <v>1920</v>
       </c>
-      <c r="R13" s="26" t="str">
+      <c r="R13" s="16" t="str">
         <f t="shared" si="1"/>
         <v>1984</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -3672,13 +2837,13 @@
         <f t="shared" si="1"/>
         <v>3840</v>
       </c>
-      <c r="R14" s="26" t="str">
+      <c r="R14" s="16" t="str">
         <f t="shared" si="1"/>
         <v>3968</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -3742,13 +2907,13 @@
         <f t="shared" si="1"/>
         <v>7680</v>
       </c>
-      <c r="R15" s="26" t="str">
+      <c r="R15" s="16" t="str">
         <f t="shared" si="1"/>
         <v>7936</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -3812,13 +2977,13 @@
         <f t="shared" si="1"/>
         <v>15360</v>
       </c>
-      <c r="R16" s="26" t="str">
+      <c r="R16" s="16" t="str">
         <f t="shared" si="1"/>
         <v>15872</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -3882,38 +3047,38 @@
         <f t="shared" si="1"/>
         <v>30720</v>
       </c>
-      <c r="R17" s="26" t="str">
+      <c r="R17" s="16" t="str">
         <f t="shared" si="1"/>
         <v>31744</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28">
+      <c r="A18" s="25"/>
+      <c r="B18" s="17">
         <v>15</v>
       </c>
-      <c r="C18" s="29" t="str">
+      <c r="C18" s="18" t="str">
         <f>TEXT(2^$B18+C$2,"0")</f>
         <v>32768</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="31"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="12"/>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
